--- a/resources/experiment 1/metrics/R2/upto time/Retinopatía de fondo (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Retinopatía de fondo (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9718704183521431</v>
+        <v>0.9908759461678647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.971891275978195</v>
+        <v>0.9904333906452124</v>
       </c>
       <c r="D3" t="n">
-        <v>0.971891275978195</v>
+        <v>0.990433437944477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9832043497303343</v>
+        <v>0.9920399284300464</v>
       </c>
       <c r="C4" t="n">
-        <v>0.983206321454772</v>
+        <v>0.9920400393746225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.983206321454772</v>
+        <v>0.9962316356274609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9484019313720418</v>
+        <v>0.6397366306640633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9481933166885788</v>
+        <v>0.7455369856315704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9481933166885788</v>
+        <v>0.6982310793695026</v>
       </c>
     </row>
   </sheetData>
